--- a/ready/UAZ-MSK.xlsx
+++ b/ready/UAZ-MSK.xlsx
@@ -378,13 +378,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <cols>
-    <col min="1" max="1" width="11.12109375" customWidth="1"/>
-    <col min="2" max="2" width="12.15234375" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.11328125" customWidth="1"/>
+    <col min="2" max="2" width="12.15625" customWidth="1"/>
+    <col min="3" max="3" width="26.4375" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.2421875" customWidth="1"/>
-    <col min="6" max="6" width="9.2421875" customWidth="1"/>
-    <col min="7" max="7" width="9.2421875" customWidth="1"/>
+    <col min="5" max="5" width="9.24609375" customWidth="1"/>
+    <col min="6" max="6" width="9.24609375" customWidth="1"/>
+    <col min="7" max="7" width="9.24609375" customWidth="1"/>
     <col min="8" max="8" width="9.19921875" customWidth="1"/>
     <col min="9" max="9" width="4.03515625" customWidth="1"/>
     <col min="10" max="10" width="3.734375" customWidth="1"/>
